--- a/data/input/absenteeism_data_45.xlsx
+++ b/data/input/absenteeism_data_45.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65569</v>
+        <v>42677</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Lucas Almeida</t>
+          <t>Kaique Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>11025.98</v>
+        <v>9315.459999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47595</v>
+        <v>70228</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiza Fogaça</t>
+          <t>Sabrina Lopes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>5941.98</v>
+        <v>7418.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6630</v>
+        <v>38835</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Augusto Cardoso</t>
+          <t>Sabrina Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>11723.4</v>
+        <v>5301.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66020</v>
+        <v>50875</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Carolina Cunha</t>
+          <t>Dra. Maria Lopes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>11596.75</v>
+        <v>5957.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62288</v>
+        <v>86258</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Melo</t>
+          <t>Enzo Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>5633.98</v>
+        <v>8896.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64238</v>
+        <v>1220</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rebeca Mendes</t>
+          <t>Pedro Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>12048.72</v>
+        <v>4985.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95674</v>
+        <v>11893</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vinicius Melo</t>
+          <t>Benjamin Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>10461.03</v>
+        <v>8702.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2844</v>
+        <v>61871</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eloah Santos</t>
+          <t>Yasmin Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>10638</v>
+        <v>7359.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75037</v>
+        <v>54856</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cauã Melo</t>
+          <t>Felipe Gonçalves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>3386.9</v>
+        <v>12308.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90143</v>
+        <v>82880</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Lucas Barros</t>
+          <t>Pietro Aragão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>8105.05</v>
+        <v>3157.64</v>
       </c>
     </row>
   </sheetData>
